--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1755891.316612721</v>
+        <v>1754593.990453605</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5932966.508100478</v>
+        <v>5932966.508100479</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1847921.546297498</v>
+        <v>1847921.546297497</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7883172.000581105</v>
+        <v>7883172.000581106</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>258.4936744650375</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>165.4609622848717</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -819,7 +819,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>152.7629926123512</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>191.1987210245385</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -904,13 +904,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>172.5850819345344</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>162.3882686062623</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>251.0746191270221</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.9312320650013</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,19 +1138,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>323.248855637662</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>180.1145501720084</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>22.16731931190212</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>107.09032691636</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,22 +1530,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>256.3031857425974</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.8042155321226</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1663,7 +1663,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4250515358842</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.2936735332465</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>104.3540588216699</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1852,13 +1852,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>220.6836475811873</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.5038856354681</v>
+        <v>214.9907198883831</v>
       </c>
       <c r="H17" t="n">
         <v>306.3951769463901</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>113.3329517744758</v>
+        <v>51.13380285456441</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>236.890456040183</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V19" t="n">
-        <v>52.05491490699703</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>130.7040301544749</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>134.7886251820721</v>
+        <v>404.5038856354681</v>
       </c>
       <c r="H20" t="n">
         <v>306.3951769463901</v>
       </c>
       <c r="I20" t="n">
-        <v>80.20209470631109</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>105.8468482287003</v>
       </c>
       <c r="H21" t="n">
-        <v>69.33120551494849</v>
+        <v>69.33120551494848</v>
       </c>
       <c r="I21" t="n">
-        <v>18.01521888122696</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>236.890456040183</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9668111419812</v>
+        <v>40.76632436610529</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8016815562456</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.5038856354681</v>
+        <v>134.7886251820721</v>
       </c>
       <c r="H23" t="n">
         <v>306.3951769463901</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>190.4095321090981</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H25" t="n">
         <v>147.5645421535798</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.77491467499429</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T25" t="n">
         <v>236.890456040183</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>134.8593739612764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136.4037074144489</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>130.704030154474</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>12.91338884773601</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>142.3374314732294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>347.3139210536814</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2812,7 +2812,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T29" t="n">
         <v>219.3841955395356</v>
@@ -2851,7 +2851,7 @@
         <v>254.4789175726347</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>76.62391866348958</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.7430678883643</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H31" t="n">
         <v>147.5645421535798</v>
       </c>
       <c r="I31" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.7046685838196</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>134.7886251820721</v>
+        <v>404.5038856354681</v>
       </c>
       <c r="H32" t="n">
         <v>306.3951769463901</v>
@@ -3082,7 +3082,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T32" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.4789175726347</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>346.596241407531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>58.75228066411866</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>194.094504985922</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>136.4037074144498</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.2120458679959</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.890456040183</v>
@@ -3483,7 +3483,7 @@
         <v>279.9668111419812</v>
       </c>
       <c r="V37" t="n">
-        <v>138.8247105607714</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>104.2397057657867</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>358.1106841996684</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.5038856354681</v>
@@ -3523,7 +3523,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T38" t="n">
         <v>219.3841955395356</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4789175726347</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>331.1028362361231</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.366451149252</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>168.7795343696562</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,10 +3757,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H41" t="n">
-        <v>85.48010456757893</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T41" t="n">
         <v>219.3841955395356</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>375.2032105436367</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>38.10481085522418</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I43" t="n">
         <v>113.3329517744758</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>28.4915745809338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>54.30453038014717</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3997,7 +3997,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I44" t="n">
-        <v>54.40015346812914</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>65.22137983914426</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H46" t="n">
         <v>147.5645421535798</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.172799432446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378.723472461974</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.639285815648</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D2" t="n">
-        <v>968.1753559087084</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>717.1200753725753</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>700.1300673666669</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4333,22 +4333,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1785.840921137969</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1785.840921137969</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.840921137969</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1785.840921137969</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1384.904248086059</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>690.3841994575342</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1207.22713412386</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1724.070068790185</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1156.690402913334</v>
+        <v>516.771966406218</v>
       </c>
       <c r="C4" t="n">
-        <v>1156.690402913334</v>
+        <v>345.6785939679345</v>
       </c>
       <c r="D4" t="n">
-        <v>1156.690402913334</v>
+        <v>345.6785939679345</v>
       </c>
       <c r="E4" t="n">
-        <v>1156.690402913334</v>
+        <v>345.6785939679345</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1623.459773798504</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1623.459773798504</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>1623.459773798504</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W4" t="n">
-        <v>1344.390109307379</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="X4" t="n">
-        <v>1344.390109307379</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="Y4" t="n">
-        <v>1344.390109307379</v>
+        <v>704.4716728002624</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.723472461974</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>1536.667839963387</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>1132.203910056448</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4573,22 +4573,22 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4609,10 +4609,10 @@
         <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1788.944652126463</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1788.944652126463</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4625,49 +4625,49 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>81.91922121582792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>786.0650117219859</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>532.4542853310545</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>532.4542853310545</v>
+        <v>1376.283949861562</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>1151.548251250326</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591565793852</v>
+        <v>896.7331341082281</v>
       </c>
       <c r="C8" t="n">
-        <v>875.4669751071217</v>
+        <v>486.6085434214982</v>
       </c>
       <c r="D8" t="n">
-        <v>875.0434492405863</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>864.743637797887</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>443.7132257515746</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4807,16 +4807,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
         <v>1767.09327468481</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.772341417937</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.772341417937</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.772341417937</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.772341417937</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.6991486406494</v>
+        <v>866.0507492249653</v>
       </c>
       <c r="C10" t="n">
-        <v>317.6057762023659</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>951.7787093922013</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4348472518847</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.6991486406494</v>
+        <v>1053.75045561901</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.7619680168467</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C13" t="n">
-        <v>403.7619680168467</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>403.7619680168467</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>242.8511528851661</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>794.2942153524291</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="W13" t="n">
-        <v>794.2942153524291</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="X13" t="n">
-        <v>794.2942153524291</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="Y13" t="n">
-        <v>591.4616744108911</v>
+        <v>616.6679024123595</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2144.727460069145</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C14" t="n">
-        <v>1734.602869382415</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4090.126566144943</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V14" t="n">
-        <v>3740.289011481424</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W14" t="n">
-        <v>3356.528710616592</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X14" t="n">
-        <v>2955.885312785545</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2554.948639733635</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>3276.783860599928</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>3276.783860599928</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>4150.441952711546</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>4150.441952711546</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.1464825916217</v>
+        <v>879.2884921858141</v>
       </c>
       <c r="C16" t="n">
-        <v>358.1464825916217</v>
+        <v>730.5070037683934</v>
       </c>
       <c r="D16" t="n">
-        <v>198.6518379145318</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="E16" t="n">
-        <v>198.6518379145318</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F16" t="n">
-        <v>198.6518379145318</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G16" t="n">
-        <v>198.6518379145318</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>198.6518379145318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5469,19 +5469,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W16" t="n">
-        <v>821.2260433431736</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X16" t="n">
-        <v>582.8821812028571</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y16" t="n">
-        <v>358.1464825916217</v>
+        <v>879.2884921858141</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1458.610503194817</v>
       </c>
       <c r="E17" t="n">
-        <v>1235.697727860285</v>
+        <v>1044.270287711714</v>
       </c>
       <c r="F17" t="n">
-        <v>814.6673158139722</v>
+        <v>623.2398756654015</v>
       </c>
       <c r="G17" t="n">
         <v>406.0775323438024</v>
@@ -5518,7 +5518,7 @@
         <v>362.2940686653947</v>
       </c>
       <c r="K17" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499377</v>
       </c>
       <c r="L17" t="n">
         <v>1651.733671893703</v>
@@ -5597,22 +5597,22 @@
         <v>96.58745462017609</v>
       </c>
       <c r="K18" t="n">
-        <v>96.58745462017609</v>
+        <v>564.1218141627101</v>
       </c>
       <c r="L18" t="n">
-        <v>773.4455087335467</v>
+        <v>1240.979868276081</v>
       </c>
       <c r="M18" t="n">
-        <v>1634.825298131318</v>
+        <v>1240.979868276081</v>
       </c>
       <c r="N18" t="n">
-        <v>2138.055429104457</v>
+        <v>1240.979868276081</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.055429104457</v>
+        <v>1240.979868276081</v>
       </c>
       <c r="P18" t="n">
-        <v>2138.055429104457</v>
+        <v>1816.554847341037</v>
       </c>
       <c r="Q18" t="n">
         <v>2138.055429104457</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.1585561235867</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="C19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="D19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="E19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="F19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="G19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="H19" t="n">
-        <v>211.0651836853032</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="I19" t="n">
         <v>96.58745462017609</v>
@@ -5679,10 +5679,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L19" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M19" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N19" t="n">
         <v>1134.516994361132</v>
@@ -5697,28 +5697,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R19" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S19" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T19" t="n">
-        <v>1364.588209888588</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U19" t="n">
-        <v>1364.588209888588</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V19" t="n">
-        <v>1312.007487760309</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.937823269183</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X19" t="n">
-        <v>794.5939611288663</v>
+        <v>372.9734591451128</v>
       </c>
       <c r="Y19" t="n">
-        <v>569.858262517631</v>
+        <v>148.2377605338775</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2273.199023788487</v>
       </c>
       <c r="C20" t="n">
-        <v>1863.074433101757</v>
+        <v>1863.074433101758</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.610503194817</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E20" t="n">
-        <v>1044.270287711714</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F20" t="n">
-        <v>623.2398756654015</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G20" t="n">
         <v>487.0897492188641</v>
@@ -5749,19 +5749,19 @@
         <v>177.5996714952378</v>
       </c>
       <c r="I20" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J20" t="n">
         <v>362.2940686653947</v>
       </c>
       <c r="K20" t="n">
-        <v>917.7207759499379</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L20" t="n">
-        <v>1651.733671893703</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M20" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N20" t="n">
         <v>3229.290047365233</v>
@@ -5776,28 +5776,28 @@
         <v>4780.289126484127</v>
       </c>
       <c r="R20" t="n">
-        <v>4829.372731008804</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S20" t="n">
-        <v>4697.247739068497</v>
+        <v>4697.247739068498</v>
       </c>
       <c r="T20" t="n">
-        <v>4475.647541553814</v>
+        <v>4475.647541553815</v>
       </c>
       <c r="U20" t="n">
-        <v>4218.598129864285</v>
+        <v>4218.598129864286</v>
       </c>
       <c r="V20" t="n">
-        <v>3868.760575200765</v>
+        <v>3868.760575200766</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.000274335934</v>
+        <v>3485.000274335935</v>
       </c>
       <c r="X20" t="n">
-        <v>3084.356876504886</v>
+        <v>3084.356876504887</v>
       </c>
       <c r="Y20" t="n">
-        <v>2683.420203452976</v>
+        <v>2683.420203452977</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I21" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J21" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K21" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L21" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M21" t="n">
-        <v>957.9672440179472</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N21" t="n">
-        <v>1850.515109773175</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P21" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q21" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R21" t="n">
         <v>2138.055429104457</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3873.701085915799</v>
+        <v>758.9948620817123</v>
       </c>
       <c r="C22" t="n">
-        <v>3873.701085915799</v>
+        <v>587.9014896434288</v>
       </c>
       <c r="D22" t="n">
-        <v>3714.206441238709</v>
+        <v>428.4068449663388</v>
       </c>
       <c r="E22" t="n">
-        <v>3553.295626107028</v>
+        <v>428.4068449663388</v>
       </c>
       <c r="F22" t="n">
-        <v>3388.664500217619</v>
+        <v>263.7757190769301</v>
       </c>
       <c r="G22" t="n">
-        <v>3388.664500217619</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="H22" t="n">
-        <v>3239.609407133195</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I22" t="n">
-        <v>3239.609407133195</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J22" t="n">
-        <v>3257.996900607734</v>
+        <v>114.974948094715</v>
       </c>
       <c r="K22" t="n">
-        <v>3419.623573862442</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L22" t="n">
-        <v>3688.573400812144</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M22" t="n">
-        <v>3987.382288239834</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N22" t="n">
-        <v>4277.538946874151</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O22" t="n">
-        <v>4545.7061240503</v>
+        <v>1402.68417153728</v>
       </c>
       <c r="P22" t="n">
-        <v>4758.745969070176</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q22" t="n">
-        <v>4829.372731008804</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R22" t="n">
-        <v>4829.372731008804</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S22" t="n">
-        <v>4644.063660399041</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.780371469563</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U22" t="n">
-        <v>4121.985612740289</v>
+        <v>1220.580313536235</v>
       </c>
       <c r="V22" t="n">
-        <v>3873.701085915799</v>
+        <v>946.6945684757567</v>
       </c>
       <c r="W22" t="n">
-        <v>3873.701085915799</v>
+        <v>946.6945684757567</v>
       </c>
       <c r="X22" t="n">
-        <v>3873.701085915799</v>
+        <v>946.6945684757567</v>
       </c>
       <c r="Y22" t="n">
-        <v>3873.701085915799</v>
+        <v>946.6945684757567</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2464.626463937057</v>
+        <v>2273.199023788487</v>
       </c>
       <c r="C23" t="n">
-        <v>2054.501873250328</v>
+        <v>1863.074433101757</v>
       </c>
       <c r="D23" t="n">
-        <v>1650.037943343388</v>
+        <v>1458.610503194817</v>
       </c>
       <c r="E23" t="n">
-        <v>1235.697727860285</v>
+        <v>1044.270287711714</v>
       </c>
       <c r="F23" t="n">
-        <v>814.6673158139722</v>
+        <v>623.2398756654015</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0775323438024</v>
+        <v>487.0897492188641</v>
       </c>
       <c r="H23" t="n">
-        <v>96.58745462017609</v>
+        <v>177.5996714952378</v>
       </c>
       <c r="I23" t="n">
         <v>96.58745462017609</v>
@@ -6028,13 +6028,13 @@
         <v>3868.760575200765</v>
       </c>
       <c r="W23" t="n">
-        <v>3676.427714484505</v>
+        <v>3485.000274335934</v>
       </c>
       <c r="X23" t="n">
-        <v>3275.784316653457</v>
+        <v>3084.356876504886</v>
       </c>
       <c r="Y23" t="n">
-        <v>2874.847643601547</v>
+        <v>2683.420203452976</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J24" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K24" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L24" t="n">
-        <v>96.58745462017609</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="M24" t="n">
-        <v>841.2429070265349</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N24" t="n">
-        <v>841.2429070265349</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O24" t="n">
-        <v>1562.480450039501</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q24" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R24" t="n">
         <v>2138.055429104457</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.6425477046001</v>
+        <v>991.5794328847801</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6425477046001</v>
+        <v>991.5794328847801</v>
       </c>
       <c r="D25" t="n">
-        <v>245.6425477046001</v>
+        <v>832.0847882076901</v>
       </c>
       <c r="E25" t="n">
-        <v>245.6425477046001</v>
+        <v>671.1739730760096</v>
       </c>
       <c r="F25" t="n">
-        <v>245.6425477046001</v>
+        <v>506.5428471866009</v>
       </c>
       <c r="G25" t="n">
-        <v>245.6425477046001</v>
+        <v>339.3545827298469</v>
       </c>
       <c r="H25" t="n">
-        <v>96.58745462017609</v>
+        <v>190.2994896454229</v>
       </c>
       <c r="I25" t="n">
         <v>96.58745462017609</v>
@@ -6153,10 +6153,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L25" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M25" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N25" t="n">
         <v>1134.516994361132</v>
@@ -6174,25 +6174,25 @@
         <v>1603.871498818066</v>
       </c>
       <c r="S25" t="n">
-        <v>1603.871498818066</v>
+        <v>1418.562428208302</v>
       </c>
       <c r="T25" t="n">
-        <v>1364.588209888588</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="U25" t="n">
-        <v>1081.793451159314</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="V25" t="n">
-        <v>807.9077060988363</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="W25" t="n">
-        <v>671.6861162389612</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="X25" t="n">
-        <v>433.3422540986445</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="Y25" t="n">
-        <v>433.3422540986445</v>
+        <v>1179.279139278824</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2545.638680812119</v>
+        <v>2273.199023788487</v>
       </c>
       <c r="C26" t="n">
-        <v>2135.514090125389</v>
+        <v>1863.074433101757</v>
       </c>
       <c r="D26" t="n">
         <v>1731.05016021845</v>
@@ -6229,7 +6229,7 @@
         <v>362.2940686653947</v>
       </c>
       <c r="K26" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499377</v>
       </c>
       <c r="L26" t="n">
         <v>1651.733671893703</v>
@@ -6305,25 +6305,25 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J27" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K27" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L27" t="n">
-        <v>96.58745462017609</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="M27" t="n">
-        <v>957.9672440179473</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="N27" t="n">
-        <v>1850.515109773175</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="O27" t="n">
-        <v>2138.055429104457</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="P27" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q27" t="n">
         <v>2138.055429104457</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.527684231263</v>
+        <v>691.9396671158898</v>
       </c>
       <c r="C28" t="n">
-        <v>851.4343117929798</v>
+        <v>691.9396671158898</v>
       </c>
       <c r="D28" t="n">
         <v>691.9396671158898</v>
@@ -6378,7 +6378,7 @@
         <v>360.1202767697272</v>
       </c>
       <c r="H28" t="n">
-        <v>211.0651836853032</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="I28" t="n">
         <v>96.58745462017609</v>
@@ -6390,10 +6390,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L28" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M28" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N28" t="n">
         <v>1134.516994361132</v>
@@ -6411,25 +6411,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S28" t="n">
-        <v>1673.30695137686</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T28" t="n">
-        <v>1673.30695137686</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U28" t="n">
-        <v>1673.30695137686</v>
+        <v>1117.983235650251</v>
       </c>
       <c r="V28" t="n">
-        <v>1673.30695137686</v>
+        <v>1117.983235650251</v>
       </c>
       <c r="W28" t="n">
-        <v>1673.30695137686</v>
+        <v>1117.983235650251</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.963089236543</v>
+        <v>879.6393735099342</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.227390625308</v>
+        <v>879.6393735099342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2405.324015728794</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C29" t="n">
-        <v>2054.501873250328</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D29" t="n">
-        <v>1650.037943343388</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E29" t="n">
-        <v>1235.697727860285</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F29" t="n">
-        <v>814.6673158139722</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0775323438024</v>
+        <v>487.0897492188641</v>
       </c>
       <c r="H29" t="n">
-        <v>96.58745462017609</v>
+        <v>177.5996714952378</v>
       </c>
       <c r="I29" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J29" t="n">
         <v>362.2940686653947</v>
       </c>
       <c r="K29" t="n">
-        <v>917.7207759499374</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L29" t="n">
-        <v>1651.733671893703</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M29" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N29" t="n">
         <v>3229.290047365233</v>
@@ -6484,31 +6484,31 @@
         <v>4444.469243587424</v>
       </c>
       <c r="Q29" t="n">
-        <v>4780.289126484126</v>
+        <v>4780.289126484127</v>
       </c>
       <c r="R29" t="n">
-        <v>4829.372731008804</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S29" t="n">
-        <v>4829.372731008804</v>
+        <v>4697.247739068498</v>
       </c>
       <c r="T29" t="n">
-        <v>4607.772533494121</v>
+        <v>4475.647541553815</v>
       </c>
       <c r="U29" t="n">
-        <v>4350.723121804592</v>
+        <v>4218.598129864286</v>
       </c>
       <c r="V29" t="n">
-        <v>4000.885567141072</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W29" t="n">
-        <v>3617.125266276241</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X29" t="n">
-        <v>3216.481868445193</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y29" t="n">
-        <v>2815.545195393283</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I30" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J30" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K30" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L30" t="n">
-        <v>96.58745462017609</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2700203362634</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="N30" t="n">
-        <v>1416.817886091491</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="O30" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q30" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R30" t="n">
         <v>2138.055429104457</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3667.773355172155</v>
+        <v>897.8673978595334</v>
       </c>
       <c r="C31" t="n">
-        <v>3667.773355172155</v>
+        <v>897.8673978595334</v>
       </c>
       <c r="D31" t="n">
-        <v>3667.773355172155</v>
+        <v>738.3727531824434</v>
       </c>
       <c r="E31" t="n">
-        <v>3667.773355172155</v>
+        <v>577.4619380507629</v>
       </c>
       <c r="F31" t="n">
-        <v>3503.142229282746</v>
+        <v>412.8308121613541</v>
       </c>
       <c r="G31" t="n">
-        <v>3503.142229282746</v>
+        <v>245.6425477046001</v>
       </c>
       <c r="H31" t="n">
-        <v>3354.087136198323</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I31" t="n">
-        <v>3239.609407133195</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J31" t="n">
-        <v>3257.996900607734</v>
+        <v>114.974948094715</v>
       </c>
       <c r="K31" t="n">
-        <v>3419.623573862442</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L31" t="n">
-        <v>3688.573400812144</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M31" t="n">
-        <v>3987.382288239834</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N31" t="n">
-        <v>4277.538946874151</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O31" t="n">
-        <v>4545.7061240503</v>
+        <v>1402.68417153728</v>
       </c>
       <c r="P31" t="n">
-        <v>4758.745969070176</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q31" t="n">
-        <v>4829.372731008804</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R31" t="n">
-        <v>4746.893451331086</v>
+        <v>1603.871498818066</v>
       </c>
       <c r="S31" t="n">
-        <v>4561.584380721322</v>
+        <v>1603.871498818066</v>
       </c>
       <c r="T31" t="n">
-        <v>4322.301091791845</v>
+        <v>1603.871498818066</v>
       </c>
       <c r="U31" t="n">
-        <v>4322.301091791845</v>
+        <v>1415.280924490976</v>
       </c>
       <c r="V31" t="n">
-        <v>4322.301091791845</v>
+        <v>1415.280924490976</v>
       </c>
       <c r="W31" t="n">
-        <v>4043.231427300719</v>
+        <v>1136.21125999985</v>
       </c>
       <c r="X31" t="n">
-        <v>3804.887565160402</v>
+        <v>897.8673978595334</v>
       </c>
       <c r="Y31" t="n">
-        <v>3804.887565160402</v>
+        <v>897.8673978595334</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2273.199023788487</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C32" t="n">
-        <v>1863.074433101757</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.610503194817</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E32" t="n">
-        <v>1044.270287711714</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F32" t="n">
-        <v>623.2398756654015</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G32" t="n">
         <v>487.0897492188641</v>
@@ -6703,7 +6703,7 @@
         <v>362.2940686653947</v>
       </c>
       <c r="K32" t="n">
-        <v>917.7207759499377</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L32" t="n">
         <v>1651.733671893703</v>
@@ -6730,22 +6730,22 @@
         <v>4697.247739068497</v>
       </c>
       <c r="T32" t="n">
-        <v>4475.647541553814</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="U32" t="n">
-        <v>4218.598129864285</v>
+        <v>4440.198327378967</v>
       </c>
       <c r="V32" t="n">
-        <v>3868.760575200765</v>
+        <v>4090.360772715448</v>
       </c>
       <c r="W32" t="n">
-        <v>3485.000274335934</v>
+        <v>3706.600471850616</v>
       </c>
       <c r="X32" t="n">
-        <v>3084.356876504886</v>
+        <v>3305.957074019569</v>
       </c>
       <c r="Y32" t="n">
-        <v>2683.420203452976</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J33" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K33" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L33" t="n">
-        <v>555.4380966937197</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="M33" t="n">
-        <v>1416.817886091491</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="N33" t="n">
-        <v>1416.817886091491</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="O33" t="n">
-        <v>2138.055429104457</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P33" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q33" t="n">
         <v>2138.055429104457</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3566.292316267039</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C34" t="n">
-        <v>3566.292316267039</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D34" t="n">
-        <v>3406.797671589949</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E34" t="n">
-        <v>3406.797671589949</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F34" t="n">
-        <v>3406.797671589949</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G34" t="n">
-        <v>3239.609407133195</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="H34" t="n">
-        <v>3239.609407133195</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I34" t="n">
-        <v>3239.609407133195</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J34" t="n">
-        <v>3257.996900607734</v>
+        <v>114.974948094715</v>
       </c>
       <c r="K34" t="n">
-        <v>3419.623573862442</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L34" t="n">
-        <v>3688.573400812144</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M34" t="n">
-        <v>3987.382288239834</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N34" t="n">
-        <v>4277.538946874151</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O34" t="n">
-        <v>4545.7061240503</v>
+        <v>1402.68417153728</v>
       </c>
       <c r="P34" t="n">
-        <v>4758.745969070176</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q34" t="n">
-        <v>4829.372731008804</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R34" t="n">
-        <v>4770.02699296424</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S34" t="n">
-        <v>4770.02699296424</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T34" t="n">
-        <v>4770.02699296424</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U34" t="n">
-        <v>4770.02699296424</v>
+        <v>978.9636602272692</v>
       </c>
       <c r="V34" t="n">
-        <v>4496.141247903762</v>
+        <v>705.0779151667912</v>
       </c>
       <c r="W34" t="n">
-        <v>4217.071583412636</v>
+        <v>705.0779151667912</v>
       </c>
       <c r="X34" t="n">
-        <v>3978.727721272319</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y34" t="n">
-        <v>3753.992022661084</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="35">
@@ -6982,7 +6982,7 @@
         <v>3084.356876504887</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.859860476608</v>
+        <v>2683.420203452977</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J36" t="n">
-        <v>96.5874546201761</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K36" t="n">
-        <v>96.5874546201761</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L36" t="n">
-        <v>96.5874546201761</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="M36" t="n">
-        <v>524.2700203362634</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="N36" t="n">
-        <v>1416.817886091491</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.055429104457</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="P36" t="n">
-        <v>2138.055429104457</v>
+        <v>2016.229618495079</v>
       </c>
       <c r="Q36" t="n">
         <v>2138.055429104457</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.5874546201761</v>
+        <v>267.6808270584596</v>
       </c>
       <c r="C37" t="n">
         <v>96.5874546201761</v>
@@ -7101,10 +7101,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L37" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M37" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N37" t="n">
         <v>1134.516994361132</v>
@@ -7122,25 +7122,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S37" t="n">
-        <v>1501.041707886021</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T37" t="n">
-        <v>1261.758418956543</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U37" t="n">
-        <v>978.9636602272692</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V37" t="n">
-        <v>838.7366798628536</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W37" t="n">
-        <v>559.667015371728</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X37" t="n">
-        <v>321.3231532314114</v>
+        <v>372.9734591451128</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.5874546201761</v>
+        <v>267.6808270584596</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2405.324015728794</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C38" t="n">
-        <v>1995.199425042064</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.735495135124</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E38" t="n">
-        <v>1176.395279652021</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F38" t="n">
-        <v>814.6673158139722</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0775323438024</v>
+        <v>487.0897492188641</v>
       </c>
       <c r="H38" t="n">
-        <v>96.58745462017609</v>
+        <v>177.5996714952378</v>
       </c>
       <c r="I38" t="n">
         <v>96.58745462017609</v>
@@ -7201,25 +7201,25 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S38" t="n">
-        <v>4829.372731008804</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.772533494121</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="U38" t="n">
-        <v>4350.723121804592</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="V38" t="n">
-        <v>4000.885567141072</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W38" t="n">
-        <v>3617.125266276241</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X38" t="n">
-        <v>3216.481868445193</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y38" t="n">
-        <v>2815.545195393283</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>96.58745462017609</v>
       </c>
       <c r="K39" t="n">
-        <v>96.58745462017609</v>
+        <v>526.5068141554573</v>
       </c>
       <c r="L39" t="n">
-        <v>96.58745462017609</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="M39" t="n">
-        <v>957.9672440179473</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.702304320818</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="O39" t="n">
-        <v>1778.939847333784</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P39" t="n">
         <v>1778.939847333784</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>267.6808270584596</v>
+        <v>1023.943854685854</v>
       </c>
       <c r="C40" t="n">
-        <v>96.58745462017609</v>
+        <v>852.8504822475704</v>
       </c>
       <c r="D40" t="n">
-        <v>96.58745462017609</v>
+        <v>852.8504822475704</v>
       </c>
       <c r="E40" t="n">
-        <v>96.58745462017609</v>
+        <v>691.9396671158898</v>
       </c>
       <c r="F40" t="n">
-        <v>96.58745462017609</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="G40" t="n">
-        <v>96.58745462017609</v>
+        <v>360.1202767697272</v>
       </c>
       <c r="H40" t="n">
-        <v>96.58745462017609</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="I40" t="n">
         <v>96.58745462017609</v>
@@ -7359,25 +7359,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S40" t="n">
-        <v>1686.350778495785</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T40" t="n">
-        <v>1686.350778495785</v>
+        <v>1262.28771682617</v>
       </c>
       <c r="U40" t="n">
-        <v>1403.556019766511</v>
+        <v>1262.28771682617</v>
       </c>
       <c r="V40" t="n">
-        <v>1129.670274706033</v>
+        <v>1262.28771682617</v>
       </c>
       <c r="W40" t="n">
-        <v>850.6006102149072</v>
+        <v>1262.28771682617</v>
       </c>
       <c r="X40" t="n">
-        <v>680.1162320637393</v>
+        <v>1023.943854685854</v>
       </c>
       <c r="Y40" t="n">
-        <v>455.380533452504</v>
+        <v>1023.943854685854</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.136169251129</v>
+        <v>2127.954708399463</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.011578564399</v>
+        <v>1717.830117712733</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.54764865746</v>
+        <v>1313.366187805793</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.207433174357</v>
+        <v>1313.366187805793</v>
       </c>
       <c r="F41" t="n">
-        <v>588.1770211280441</v>
+        <v>892.3357757594806</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5872376578743</v>
+        <v>483.7459922893108</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>174.2559145656845</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7417,46 +7417,46 @@
         <v>914.3770190203841</v>
       </c>
       <c r="L41" t="n">
-        <v>1648.389914964149</v>
+        <v>1484.545825416037</v>
       </c>
       <c r="M41" t="n">
-        <v>2448.544047882649</v>
+        <v>2284.699958334537</v>
       </c>
       <c r="N41" t="n">
-        <v>3225.94629043568</v>
+        <v>3062.102200887568</v>
       </c>
       <c r="O41" t="n">
-        <v>3777.688078627227</v>
+        <v>3728.604474102549</v>
       </c>
       <c r="P41" t="n">
-        <v>4326.365001634436</v>
+        <v>4277.281397109758</v>
       </c>
       <c r="Q41" t="n">
-        <v>4662.18488453114</v>
+        <v>4613.101280006462</v>
       </c>
       <c r="R41" t="n">
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4530.059892590833</v>
       </c>
       <c r="T41" t="n">
-        <v>4440.584687016457</v>
+        <v>4308.45969507615</v>
       </c>
       <c r="U41" t="n">
-        <v>4183.535275326927</v>
+        <v>4051.41028338662</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.697720663408</v>
+        <v>3701.5727287231</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.937419798576</v>
+        <v>3317.812427858269</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.294021967529</v>
+        <v>2917.169030027221</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.357348915619</v>
+        <v>2538.175888063952</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>560.7780572331568</v>
       </c>
       <c r="L42" t="n">
-        <v>560.7780572331568</v>
+        <v>1237.636111346527</v>
       </c>
       <c r="M42" t="n">
-        <v>560.7780572331568</v>
+        <v>1237.636111346527</v>
       </c>
       <c r="N42" t="n">
-        <v>560.7780572331568</v>
+        <v>1237.636111346527</v>
       </c>
       <c r="O42" t="n">
-        <v>1200.021111339275</v>
+        <v>1237.636111346527</v>
       </c>
       <c r="P42" t="n">
         <v>1775.59609040423</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4927715853572</v>
+        <v>682.318460861263</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3993991470737</v>
+        <v>682.318460861263</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3993991470737</v>
+        <v>682.318460861263</v>
       </c>
       <c r="E43" t="n">
-        <v>413.3993991470737</v>
+        <v>521.4076457295826</v>
       </c>
       <c r="F43" t="n">
-        <v>374.9096912125038</v>
+        <v>356.7765198401739</v>
       </c>
       <c r="G43" t="n">
-        <v>207.7214267557499</v>
+        <v>356.7765198401739</v>
       </c>
       <c r="H43" t="n">
         <v>207.7214267557499</v>
@@ -7593,28 +7593,28 @@
         <v>1683.007021566232</v>
       </c>
       <c r="R43" t="n">
-        <v>1600.527741888513</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="S43" t="n">
-        <v>1600.527741888513</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="T43" t="n">
-        <v>1600.527741888513</v>
+        <v>1468.918582692898</v>
       </c>
       <c r="U43" t="n">
-        <v>1600.527741888513</v>
+        <v>1186.123823963624</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.641996828035</v>
+        <v>1186.123823963624</v>
       </c>
       <c r="W43" t="n">
-        <v>1047.572332336909</v>
+        <v>907.0541594724983</v>
       </c>
       <c r="X43" t="n">
-        <v>809.2284701965925</v>
+        <v>907.0541594724983</v>
       </c>
       <c r="Y43" t="n">
-        <v>584.4927715853572</v>
+        <v>682.318460861263</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2516.232356975311</v>
+        <v>2106.011177310822</v>
       </c>
       <c r="C44" t="n">
-        <v>2106.107766288581</v>
+        <v>2051.158116320774</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.643836381642</v>
+        <v>1646.694186413835</v>
       </c>
       <c r="E44" t="n">
-        <v>1287.303620898539</v>
+        <v>1232.353970930732</v>
       </c>
       <c r="F44" t="n">
-        <v>866.2732088522262</v>
+        <v>811.323558884419</v>
       </c>
       <c r="G44" t="n">
-        <v>457.6834253820563</v>
+        <v>402.7337754142491</v>
       </c>
       <c r="H44" t="n">
-        <v>148.19334765843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>358.9503117358414</v>
+        <v>195.1062221877293</v>
       </c>
       <c r="K44" t="n">
-        <v>914.3770190203841</v>
+        <v>750.532929472272</v>
       </c>
       <c r="L44" t="n">
-        <v>1533.629429940715</v>
+        <v>1484.545825416037</v>
       </c>
       <c r="M44" t="n">
-        <v>2333.783562859215</v>
+        <v>2284.699958334537</v>
       </c>
       <c r="N44" t="n">
-        <v>3111.185805412246</v>
+        <v>3062.102200887568</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.688078627227</v>
+        <v>3728.604474102549</v>
       </c>
       <c r="P44" t="n">
-        <v>4326.365001634436</v>
+        <v>4277.281397109758</v>
       </c>
       <c r="Q44" t="n">
-        <v>4662.18488453114</v>
+        <v>4613.101280006462</v>
       </c>
       <c r="R44" t="n">
         <v>4662.18488453114</v>
@@ -7733,22 +7733,22 @@
         <v>760.4528283871996</v>
       </c>
       <c r="L45" t="n">
-        <v>760.4528283871996</v>
+        <v>1437.31088250057</v>
       </c>
       <c r="M45" t="n">
-        <v>760.4528283871996</v>
+        <v>1437.31088250057</v>
       </c>
       <c r="N45" t="n">
-        <v>760.4528283871996</v>
+        <v>1437.31088250057</v>
       </c>
       <c r="O45" t="n">
-        <v>1165.9521797488</v>
+        <v>1437.31088250057</v>
       </c>
       <c r="P45" t="n">
-        <v>1741.527158813756</v>
+        <v>1775.59609040423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2100.642740584429</v>
+        <v>2134.711672174903</v>
       </c>
       <c r="R45" t="n">
         <v>2134.711672174903</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>479.2723448690316</v>
+        <v>846.9186838108712</v>
       </c>
       <c r="C46" t="n">
-        <v>308.1789724307481</v>
+        <v>846.9186838108712</v>
       </c>
       <c r="D46" t="n">
-        <v>308.1789724307481</v>
+        <v>687.4240391337812</v>
       </c>
       <c r="E46" t="n">
-        <v>308.1789724307481</v>
+        <v>687.4240391337812</v>
       </c>
       <c r="F46" t="n">
-        <v>308.1789724307481</v>
+        <v>522.7929132443725</v>
       </c>
       <c r="G46" t="n">
-        <v>242.2987907750468</v>
+        <v>355.6046487876185</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>206.5495557031945</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1683.007021566232</v>
       </c>
       <c r="S46" t="n">
-        <v>1683.007021566232</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="T46" t="n">
-        <v>1683.007021566232</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="U46" t="n">
-        <v>1683.007021566232</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="V46" t="n">
-        <v>1409.121276505753</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.051612014628</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="X46" t="n">
-        <v>891.7077498743113</v>
+        <v>1259.354088816151</v>
       </c>
       <c r="Y46" t="n">
-        <v>666.972051263076</v>
+        <v>1034.618390204916</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>298.7361805822441</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,7 +8063,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,7 +8072,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>91.92897171537967</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8540,22 +8540,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>72.2360729453882</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>414.1811974913928</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>541.3135869795351</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9245,25 +9245,25 @@
         <v>44.43801295009138</v>
       </c>
       <c r="K18" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N18" t="n">
-        <v>542.4260775649916</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O18" t="n">
-        <v>40.2964765080083</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P18" t="n">
-        <v>40.25045664277767</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>47.3278537708087</v>
+        <v>372.075916158102</v>
       </c>
       <c r="R18" t="n">
         <v>54.44523725909806</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>44.43801295009143</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>43.97921381771114</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>40.18534987743256</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O21" t="n">
-        <v>330.7412435093036</v>
+        <v>449.8917809136656</v>
       </c>
       <c r="P21" t="n">
-        <v>40.25045664277775</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.32785377080875</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>54.44523725909809</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>40.18534987743247</v>
+        <v>449.7806542830897</v>
       </c>
       <c r="M24" t="n">
-        <v>791.1529137416036</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N24" t="n">
-        <v>34.11281395576051</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.3278537708087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>40.18534987743247</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O27" t="n">
-        <v>330.7412435093033</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P27" t="n">
-        <v>40.25045664277767</v>
+        <v>381.952686848495</v>
       </c>
       <c r="Q27" t="n">
-        <v>47.3278537708087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>54.44523725909806</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>40.18534987743247</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>470.9782807211273</v>
+        <v>346.264857081833</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P30" t="n">
-        <v>40.25045664277767</v>
+        <v>40.25045664277766</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.3278537708087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>503.6708469214159</v>
+        <v>484.19371649569</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N33" t="n">
-        <v>34.11281395576051</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P33" t="n">
-        <v>40.25045664277767</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.3278537708087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>54.44523725909806</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>40.18534987743247</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>470.9782807211273</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P36" t="n">
-        <v>40.25045664277767</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.3278537708087</v>
+        <v>170.3842281237152</v>
       </c>
       <c r="R36" t="n">
         <v>54.44523725909806</v>
@@ -10904,22 +10904,22 @@
         <v>44.43801295009137</v>
       </c>
       <c r="K39" t="n">
-        <v>43.97921381771105</v>
+        <v>478.2411931462779</v>
       </c>
       <c r="L39" t="n">
-        <v>40.18534987743244</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871582</v>
       </c>
       <c r="N39" t="n">
-        <v>134.8552991101748</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800826</v>
       </c>
       <c r="P39" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>649.7756104508509</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>627.4022719830261</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>78.69905308228653</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>40.18534987743244</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>38.97568908871582</v>
@@ -11153,10 +11153,10 @@
         <v>34.11281395576046</v>
       </c>
       <c r="O42" t="n">
-        <v>685.9965311606525</v>
+        <v>40.29647650800826</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>583.6443748828817</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>164.5775124642597</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>699.3550089606265</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>78.69905308228653</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>40.18534987743244</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>38.97568908871582</v>
@@ -11390,16 +11390,16 @@
         <v>34.11281395576046</v>
       </c>
       <c r="O45" t="n">
-        <v>449.8917809136655</v>
+        <v>40.29647650800826</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>381.952686848495</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>54.44523725909805</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14.84370186727585</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.68412609300032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>42.06483528720082</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>22.08876518065412</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.82852661504722</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>189.513165747085</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23910,7 +23910,7 @@
         <v>147.5645421535798</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.19914891991136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S19" t="n">
         <v>183.4559799036662</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.0919727028762</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>269.7152604533952</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>269.715260453396</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I22" t="n">
         <v>113.3329517744758</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.65448688094155</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>239.2004867758759</v>
       </c>
       <c r="V22" t="n">
-        <v>25.34520605362766</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>269.715260453396</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.20209470631106</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>189.513165747085</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>113.3329517744758</v>
+        <v>20.55803709948148</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>141.4195938849379</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>269.7152604533957</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>269.7152604533961</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24651,13 +24651,13 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S28" t="n">
-        <v>170.5425910559302</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9668111419812</v>
+        <v>137.6293796687518</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>58.70942372618117</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>80.20209470631106</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>269.7152604533945</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.07964144173965</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9668111419812</v>
+        <v>93.26214255816157</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>269.715260453396</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>50.33106491385979</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H34" t="n">
         <v>147.5645421535798</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.90220621682287</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>41.86591853299143</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>269.7152604533948</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>269.7152604533949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25362,7 +25362,7 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>132.3221770491019</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.2486358593362</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>58.70942372618089</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>15.23634288076101</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S40" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.890456040183</v>
+        <v>0.5240048909310246</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>67.18088914925724</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9150723788111</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>21.72409577775409</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>124.8800037752905</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.890456040183</v>
+        <v>208.3988814592492</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>351.7188143997154</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>25.8019412381819</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>100.2950019730422</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.3329517744758</v>
+        <v>1.160152342029818</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.890456040183</v>
@@ -26082,10 +26082,10 @@
         <v>279.9668111419812</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681685.7492068848</v>
+        <v>681685.7492068849</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681685.7492068849</v>
+        <v>681685.7492068846</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681685.7492068849</v>
+        <v>681685.7492068848</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666785.0126965749</v>
+        <v>666785.012696575</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666785.012696575</v>
+        <v>666785.0126965748</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038623</v>
       </c>
       <c r="C2" t="n">
         <v>521223.6577038623</v>
@@ -26322,37 +26322,37 @@
         <v>521223.6577038624</v>
       </c>
       <c r="E2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="F2" t="n">
         <v>463437.86805615</v>
       </c>
       <c r="G2" t="n">
+        <v>475713.1772931247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>475713.1772931248</v>
+      </c>
+      <c r="I2" t="n">
+        <v>475713.1772931246</v>
+      </c>
+      <c r="J2" t="n">
+        <v>475713.1772931248</v>
+      </c>
+      <c r="K2" t="n">
+        <v>475713.1772931247</v>
+      </c>
+      <c r="L2" t="n">
         <v>475713.1772931249</v>
       </c>
-      <c r="H2" t="n">
-        <v>475713.1772931249</v>
-      </c>
-      <c r="I2" t="n">
-        <v>475713.1772931247</v>
-      </c>
-      <c r="J2" t="n">
-        <v>475713.1772931247</v>
-      </c>
-      <c r="K2" t="n">
-        <v>475713.1772931244</v>
-      </c>
-      <c r="L2" t="n">
-        <v>475713.1772931245</v>
-      </c>
       <c r="M2" t="n">
-        <v>475713.1772931247</v>
+        <v>475713.1772931248</v>
       </c>
       <c r="N2" t="n">
         <v>475713.1772931248</v>
       </c>
       <c r="O2" t="n">
-        <v>465383.921586925</v>
+        <v>465383.9215869253</v>
       </c>
       <c r="P2" t="n">
         <v>465383.9215869253</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37974.06827759073</v>
+        <v>37974.06827759076</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26487,7 +26487,7 @@
         <v>74150.00929732189</v>
       </c>
       <c r="H5" t="n">
-        <v>74150.00929732189</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="I5" t="n">
         <v>74150.00929732189</v>
@@ -26496,7 +26496,7 @@
         <v>74150.00929732189</v>
       </c>
       <c r="K5" t="n">
-        <v>74150.00929732189</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="L5" t="n">
         <v>74150.00929732189</v>
@@ -26524,46 +26524,46 @@
         <v>48525.81142886157</v>
       </c>
       <c r="C6" t="n">
-        <v>223481.3213219757</v>
+        <v>223481.3213219756</v>
       </c>
       <c r="D6" t="n">
         <v>223481.3213219758</v>
       </c>
       <c r="E6" t="n">
-        <v>81886.80052633425</v>
+        <v>81706.21993368515</v>
       </c>
       <c r="F6" t="n">
-        <v>274016.5634257774</v>
+        <v>273835.9828331282</v>
       </c>
       <c r="G6" t="n">
-        <v>246052.9875319253</v>
+        <v>245910.7672806415</v>
       </c>
       <c r="H6" t="n">
-        <v>284027.0558095162</v>
+        <v>283884.8355582324</v>
       </c>
       <c r="I6" t="n">
-        <v>284027.0558095159</v>
+        <v>283884.8355582322</v>
       </c>
       <c r="J6" t="n">
-        <v>147432.2550036209</v>
+        <v>147290.0347523374</v>
       </c>
       <c r="K6" t="n">
-        <v>284027.0558095156</v>
+        <v>283884.8355582323</v>
       </c>
       <c r="L6" t="n">
-        <v>284027.0558095156</v>
+        <v>283884.8355582325</v>
       </c>
       <c r="M6" t="n">
-        <v>123668.6053088331</v>
+        <v>123526.3850575497</v>
       </c>
       <c r="N6" t="n">
-        <v>284027.0558095159</v>
+        <v>283884.8355582324</v>
       </c>
       <c r="O6" t="n">
-        <v>278893.5613191686</v>
+        <v>278719.0621438034</v>
       </c>
       <c r="P6" t="n">
-        <v>278893.5613191689</v>
+        <v>278719.0621438035</v>
       </c>
     </row>
   </sheetData>
@@ -26752,25 +26752,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871846</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="H3" t="n">
-        <v>34.10751311871827</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="I3" t="n">
-        <v>34.10751311871845</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="J3" t="n">
-        <v>34.10751311871845</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="K3" t="n">
-        <v>34.10751311871845</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="L3" t="n">
-        <v>34.10751311871845</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="M3" t="n">
-        <v>34.10751311871845</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="N3" t="n">
         <v>34.10751311871853</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871846</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>146.1473268010586</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>89.02892453821332</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27548,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.22182201816346</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>45.95453060852637</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>237.6117313937378</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27681,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>234.2486952464747</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>25.2043487191923</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>43.02919145391218</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>77.17043497020802</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>166.2246289448757</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>147.2151194019985</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28073,13 +28073,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>169.1886409298544</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H17" t="n">
-        <v>1.404235452169147</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I17" t="n">
-        <v>5.286150349786507</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J17" t="n">
-        <v>11.6375177550144</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K17" t="n">
-        <v>17.44162239949823</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L17" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M17" t="n">
-        <v>24.07630497651125</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N17" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O17" t="n">
-        <v>23.10244120997578</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P17" t="n">
-        <v>19.71739907884669</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R17" t="n">
-        <v>8.613089732436979</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S17" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6002236730741307</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07336333010441329</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7085353196926232</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I18" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J18" t="n">
-        <v>6.931225849908627</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K18" t="n">
-        <v>11.84656896690432</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L18" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M18" t="n">
-        <v>18.58859464970156</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N18" t="n">
-        <v>19.08057943798949</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O18" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P18" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.36476473403002</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R18" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S18" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00482653487529035</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06150535152555787</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5468384890181421</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I19" t="n">
-        <v>1.849633662241323</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J19" t="n">
-        <v>4.348428352856941</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K19" t="n">
-        <v>7.145803568151177</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L19" t="n">
-        <v>9.144168353172487</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M19" t="n">
-        <v>9.641243421410856</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N19" t="n">
-        <v>9.41199620208833</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O19" t="n">
-        <v>8.693501868357947</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P19" t="n">
-        <v>7.438792697236559</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.150234480926487</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R19" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S19" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T19" t="n">
-        <v>0.262795592881929</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003354837355939524</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.137115630628013</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H20" t="n">
-        <v>1.404235452169139</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I20" t="n">
-        <v>5.286150349786477</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J20" t="n">
-        <v>11.63751775501433</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K20" t="n">
-        <v>17.44162239949813</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L20" t="n">
-        <v>21.63787488033018</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M20" t="n">
-        <v>24.07630497651111</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N20" t="n">
-        <v>24.46588476203295</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O20" t="n">
-        <v>23.10244120997565</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P20" t="n">
-        <v>19.71739907884657</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.80694555698085</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R20" t="n">
-        <v>8.613089732436931</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S20" t="n">
-        <v>3.12452243293585</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6002236730741274</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01096925045024104</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07336333010441287</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7085353196926192</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I21" t="n">
-        <v>2.525886584735268</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J21" t="n">
-        <v>6.931225849908587</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K21" t="n">
-        <v>11.84656896690425</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L21" t="n">
-        <v>15.92917393341649</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M21" t="n">
-        <v>18.58859464970145</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N21" t="n">
-        <v>19.08057943798938</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O21" t="n">
-        <v>17.4550024919916</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P21" t="n">
-        <v>14.009178360026</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.364764734029967</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R21" t="n">
-        <v>4.554961846307321</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3626916797903</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2957057033594536</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004826534875290322</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06150535152555752</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5468384890181391</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I22" t="n">
-        <v>1.849633662241312</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J22" t="n">
-        <v>4.348428352856916</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K22" t="n">
-        <v>7.145803568151136</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L22" t="n">
-        <v>9.144168353172436</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M22" t="n">
-        <v>9.641243421410802</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N22" t="n">
-        <v>9.411996202088277</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O22" t="n">
-        <v>8.693501868357897</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P22" t="n">
-        <v>7.438792697236518</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.150234480926458</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R22" t="n">
-        <v>2.765504260412795</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S22" t="n">
-        <v>1.07187053522267</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2627955928819276</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003354837355939505</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H23" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I23" t="n">
-        <v>5.286150349786506</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J23" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K23" t="n">
-        <v>17.44162239949822</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L23" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M23" t="n">
-        <v>24.07630497651124</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N23" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O23" t="n">
-        <v>23.10244120997577</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P23" t="n">
-        <v>19.71739907884668</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R23" t="n">
-        <v>8.613089732436977</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S23" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6002236730741306</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07336333010441327</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7085353196926231</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I24" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J24" t="n">
-        <v>6.931225849908626</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K24" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L24" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M24" t="n">
-        <v>18.58859464970155</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N24" t="n">
-        <v>19.08057943798948</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O24" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P24" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.364764734030018</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R24" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S24" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004826534875290349</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06150535152555785</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H25" t="n">
-        <v>0.546838489018142</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I25" t="n">
-        <v>1.849633662241322</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J25" t="n">
-        <v>4.34842835285694</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K25" t="n">
-        <v>7.145803568151175</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L25" t="n">
-        <v>9.144168353172486</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M25" t="n">
-        <v>9.641243421410854</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N25" t="n">
-        <v>9.411996202088329</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O25" t="n">
-        <v>8.693501868357945</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P25" t="n">
-        <v>7.438792697236558</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.150234480926486</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R25" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S25" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2627955928819289</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003354837355939523</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H26" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I26" t="n">
-        <v>5.286150349786506</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J26" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K26" t="n">
-        <v>17.44162239949822</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L26" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M26" t="n">
-        <v>24.07630497651124</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N26" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O26" t="n">
-        <v>23.10244120997577</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P26" t="n">
-        <v>19.71739907884668</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R26" t="n">
-        <v>8.613089732436977</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S26" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6002236730741306</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07336333010441327</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7085353196926231</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I27" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J27" t="n">
-        <v>6.931225849908626</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K27" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L27" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M27" t="n">
-        <v>18.58859464970155</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N27" t="n">
-        <v>19.08057943798948</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P27" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.364764734030018</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R27" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S27" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004826534875290349</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06150535152555785</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H28" t="n">
-        <v>0.546838489018142</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I28" t="n">
-        <v>1.849633662241322</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J28" t="n">
-        <v>4.34842835285694</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K28" t="n">
-        <v>7.145803568151175</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L28" t="n">
-        <v>9.144168353172486</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M28" t="n">
-        <v>9.641243421410854</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N28" t="n">
-        <v>9.411996202088329</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O28" t="n">
-        <v>8.693501868357945</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P28" t="n">
-        <v>7.438792697236558</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.150234480926486</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R28" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S28" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2627955928819289</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003354837355939523</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H29" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I29" t="n">
-        <v>5.286150349786506</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J29" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K29" t="n">
-        <v>17.44162239949822</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L29" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M29" t="n">
-        <v>24.07630497651124</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N29" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O29" t="n">
-        <v>23.10244120997577</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P29" t="n">
-        <v>19.71739907884668</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R29" t="n">
-        <v>8.613089732436977</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S29" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6002236730741306</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07336333010441327</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7085353196926231</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I30" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J30" t="n">
-        <v>6.931225849908626</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K30" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L30" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M30" t="n">
-        <v>18.58859464970155</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N30" t="n">
-        <v>19.08057943798948</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O30" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P30" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.364764734030018</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R30" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S30" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004826534875290349</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06150535152555785</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H31" t="n">
-        <v>0.546838489018142</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I31" t="n">
-        <v>1.849633662241322</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J31" t="n">
-        <v>4.34842835285694</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K31" t="n">
-        <v>7.145803568151175</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L31" t="n">
-        <v>9.144168353172486</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M31" t="n">
-        <v>9.641243421410854</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N31" t="n">
-        <v>9.411996202088329</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O31" t="n">
-        <v>8.693501868357945</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P31" t="n">
-        <v>7.438792697236558</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.150234480926486</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R31" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S31" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2627955928819289</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003354837355939523</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H32" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I32" t="n">
-        <v>5.286150349786506</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J32" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K32" t="n">
-        <v>17.44162239949822</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L32" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M32" t="n">
-        <v>24.07630497651124</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N32" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O32" t="n">
-        <v>23.10244120997577</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P32" t="n">
-        <v>19.71739907884668</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R32" t="n">
-        <v>8.613089732436977</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S32" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6002236730741306</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07336333010441327</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7085353196926231</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I33" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J33" t="n">
-        <v>6.931225849908626</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K33" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L33" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M33" t="n">
-        <v>18.58859464970155</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N33" t="n">
-        <v>19.08057943798948</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O33" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P33" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.364764734030018</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R33" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S33" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004826534875290349</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06150535152555785</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H34" t="n">
-        <v>0.546838489018142</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I34" t="n">
-        <v>1.849633662241322</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J34" t="n">
-        <v>4.34842835285694</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K34" t="n">
-        <v>7.145803568151175</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L34" t="n">
-        <v>9.144168353172486</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M34" t="n">
-        <v>9.641243421410854</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N34" t="n">
-        <v>9.411996202088329</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O34" t="n">
-        <v>8.693501868357945</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P34" t="n">
-        <v>7.438792697236558</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.150234480926486</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R34" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S34" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2627955928819289</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003354837355939523</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1371156306280138</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H35" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I35" t="n">
-        <v>5.286150349786506</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J35" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K35" t="n">
-        <v>17.44162239949822</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L35" t="n">
-        <v>21.6378748803303</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M35" t="n">
-        <v>24.07630497651124</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N35" t="n">
-        <v>24.46588476203309</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O35" t="n">
-        <v>23.10244120997577</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P35" t="n">
-        <v>19.71739907884668</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.80694555698093</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R35" t="n">
-        <v>8.613089732436977</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S35" t="n">
-        <v>3.124522432935867</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6002236730741306</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0109692504502411</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07336333010441327</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7085353196926231</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I36" t="n">
-        <v>2.525886584735282</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J36" t="n">
-        <v>6.931225849908626</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K36" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L36" t="n">
-        <v>15.92917393341658</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M36" t="n">
-        <v>18.58859464970155</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N36" t="n">
-        <v>19.08057943798948</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O36" t="n">
-        <v>17.4550024919917</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P36" t="n">
-        <v>14.00917836002608</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.364764734030018</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R36" t="n">
-        <v>4.554961846307346</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S36" t="n">
-        <v>1.362691679790307</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2957057033594552</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004826534875290349</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06150535152555785</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H37" t="n">
-        <v>0.546838489018142</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I37" t="n">
-        <v>1.849633662241322</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J37" t="n">
-        <v>4.34842835285694</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K37" t="n">
-        <v>7.145803568151175</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L37" t="n">
-        <v>9.144168353172486</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M37" t="n">
-        <v>9.641243421410854</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N37" t="n">
-        <v>9.411996202088329</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O37" t="n">
-        <v>8.693501868357945</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P37" t="n">
-        <v>7.438792697236558</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.150234480926486</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R37" t="n">
-        <v>2.76550426041281</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S37" t="n">
-        <v>1.071870535222676</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2627955928819289</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003354837355939523</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>203.2507825193993</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,7 +34783,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.55973291537967</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>441.8756042977812</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>487.0539519767314</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35892,13 +35892,13 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M17" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N17" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O17" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P17" t="n">
         <v>554.2191141486967</v>
@@ -35907,7 +35907,7 @@
         <v>339.2120029259628</v>
       </c>
       <c r="R17" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L18" t="n">
         <v>683.6950041549198</v>
       </c>
       <c r="M18" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>508.3132636092311</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>324.7480623872933</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>268.3905192375944</v>
+        <v>268.3905192375945</v>
       </c>
       <c r="K20" t="n">
-        <v>561.0370780651946</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L20" t="n">
-        <v>741.4271676199645</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M20" t="n">
-        <v>808.2364978974747</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N20" t="n">
-        <v>785.2547904576066</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O20" t="n">
-        <v>673.2346194090715</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P20" t="n">
-        <v>554.2191141486966</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q20" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R20" t="n">
-        <v>49.57939850977513</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>870.0805953512839</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>901.5635007628559</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>290.4447670012952</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.57322573185744</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K22" t="n">
         <v>163.2592659138461</v>
@@ -36293,13 +36293,13 @@
         <v>293.0875339740583</v>
       </c>
       <c r="O22" t="n">
-        <v>270.8759365415641</v>
+        <v>270.8759365415642</v>
       </c>
       <c r="P22" t="n">
-        <v>215.1917626463399</v>
+        <v>215.19176264634</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.34016357437174</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M23" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N23" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O23" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P23" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q23" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R23" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="M24" t="n">
-        <v>752.1772246528877</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>728.5227707201677</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>581.3888677423797</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M26" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N26" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O26" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P26" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q26" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R26" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M27" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>290.444767001295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.7022302057173</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M29" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N29" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O29" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P29" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q29" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R29" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M30" t="n">
-        <v>432.0025916324115</v>
+        <v>307.2891679931171</v>
       </c>
       <c r="N30" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>728.5227707201677</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M32" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N32" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O32" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P32" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q32" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R32" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L33" t="n">
-        <v>463.4854970439834</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="M33" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>728.5227707201677</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M35" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N35" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O35" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P35" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q35" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R35" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M36" t="n">
-        <v>432.0025916324115</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>728.5227707201677</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>123.0563743529065</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>434.2619793285668</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M39" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>100.7424851544144</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q39" t="n">
         <v>362.7430118895688</v>
@@ -37785,7 +37785,7 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L41" t="n">
-        <v>741.4271676199647</v>
+        <v>575.9280872683364</v>
       </c>
       <c r="M41" t="n">
         <v>808.2364978974749</v>
@@ -37794,7 +37794,7 @@
         <v>785.2547904576069</v>
       </c>
       <c r="O41" t="n">
-        <v>557.3149375672189</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P41" t="n">
         <v>554.2191141486967</v>
@@ -37803,7 +37803,7 @@
         <v>339.2120029259628</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>49.5793985097752</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>472.2569288308424</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>645.7000546526442</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>581.3888677423797</v>
+        <v>543.3939182401041</v>
       </c>
       <c r="Q42" t="n">
         <v>362.7430118895688</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.3905192375945</v>
+        <v>102.8914388859661</v>
       </c>
       <c r="K44" t="n">
         <v>561.0370780651947</v>
       </c>
       <c r="L44" t="n">
-        <v>625.507485778112</v>
+        <v>741.4271676199647</v>
       </c>
       <c r="M44" t="n">
         <v>808.2364978974749</v>
@@ -38040,7 +38040,7 @@
         <v>339.2120029259628</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>49.5793985097752</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>472.2569288308424</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.5953044056573</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>581.3888677423797</v>
+        <v>341.7022302057173</v>
       </c>
       <c r="Q45" t="n">
         <v>362.7430118895688</v>
       </c>
       <c r="R45" t="n">
-        <v>34.41306221260018</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
